--- a/Table_Generate/links_sheet.xlsx
+++ b/Table_Generate/links_sheet.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Documentation\Table_gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17e821e30eeff6db/Desktop/ELL305_work/Documentation_P2/Table_Generate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E434E7C-AAF9-46FE-B7EE-CEB95525AAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7E434E7C-AAF9-46FE-B7EE-CEB95525AAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE9D9B32-246F-494D-9B0E-024636E4FFFB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -451,6 +462,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,12 +470,14 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -717,12 +731,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="18.88671875" customWidth="1"/>
+    <col min="1" max="10" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -879,7 +893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45308.424201319445</v>
       </c>
@@ -893,7 +907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45308.440843379634</v>
       </c>
@@ -907,7 +921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45308.478485439817</v>
       </c>
@@ -921,7 +935,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45308.478843310186</v>
       </c>
@@ -935,7 +949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45308.481733807872</v>
       </c>
@@ -949,7 +963,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45308.483605324072</v>
       </c>
@@ -963,7 +977,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45308.495070486111</v>
       </c>
@@ -977,7 +991,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45308.502002210647</v>
       </c>
@@ -991,7 +1005,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45308.502603738423</v>
       </c>
@@ -1005,7 +1019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45308.580915706014</v>
       </c>
@@ -1019,7 +1033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45308.598049699074</v>
       </c>
@@ -1033,7 +1047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45308.598271539347</v>
       </c>
@@ -1047,7 +1061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45308.598345856481</v>
       </c>
@@ -1061,7 +1075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45308.598429814811</v>
       </c>
@@ -1075,7 +1089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45308.598528148148</v>
       </c>
@@ -1089,7 +1103,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45308.59875675926</v>
       </c>
@@ -1103,7 +1117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45308.598811874996</v>
       </c>
@@ -1117,7 +1131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45308.598819363426</v>
       </c>
@@ -1131,7 +1145,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45308.598860150465</v>
       </c>
@@ -1145,7 +1159,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45308.59886204861</v>
       </c>
@@ -1159,7 +1173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45308.599133298616</v>
       </c>
@@ -1173,7 +1187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45308.599609722223</v>
       </c>
@@ -1187,7 +1201,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45308.599998333331</v>
       </c>
@@ -1201,7 +1215,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45308.600041261576</v>
       </c>
@@ -1215,7 +1229,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45308.600514085643</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45308.600873703705</v>
       </c>
@@ -1243,7 +1257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45308.601556967595</v>
       </c>
@@ -1257,7 +1271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45308.602022569445</v>
       </c>
@@ -1271,7 +1285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45308.606615902783</v>
       </c>
@@ -1285,7 +1299,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45308.608092245369</v>
       </c>
@@ -1299,7 +1313,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45308.610368622685</v>
       </c>
@@ -1313,7 +1327,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45308.610477395836</v>
       </c>
@@ -1327,7 +1341,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45308.613111226849</v>
       </c>
@@ -1341,7 +1355,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45308.6135474537</v>
       </c>
@@ -1355,7 +1369,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45308.615245370369</v>
       </c>
@@ -1371,51 +1385,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D22" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D24" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D25" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D27" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D28" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D29" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D30" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D31" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D33" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D34" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D35" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D36" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D37" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{1929CA20-8F5C-4AB9-957B-2688A7FF6948}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{67519CC7-1BCD-4C53-BF7A-7189E0CEA784}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{15BBA116-79FE-45DC-B1E9-1CC377A97163}"/>
+    <hyperlink ref="D18" r:id="rId4" xr:uid="{AA93275F-FC3C-4CF3-A04E-778DB8530943}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{CA9E41F5-B97F-46AF-86FD-7A74D866899B}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{3365FA44-BA46-4D73-9F21-D251E6DBBA82}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{17DA40F4-5CF3-4475-A123-B5D64847F873}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{324470D3-EA30-49A1-8DB9-5ED9EBE7318F}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{F90CCC1A-7C63-4495-9510-59E0D741C4F0}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{55BC50D3-BF71-4B61-9180-670BA851D874}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{336E7955-5DFE-4DCD-8996-9B1AC6BE81D4}"/>
+    <hyperlink ref="D3" r:id="rId12" xr:uid="{C72D7683-7417-404F-8392-A08EB7382310}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{D4AB307D-5516-44CF-8511-1ED838ABD63D}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{EE879F70-57F3-4132-AE90-9DC5591723D9}"/>
+    <hyperlink ref="D46" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D45" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D44" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D43" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D42" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D41" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D40" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="D38" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D39" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D44" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D16" r:id="rId32" xr:uid="{EE879F70-57F3-4132-AE90-9DC5591723D9}"/>
-    <hyperlink ref="D4" r:id="rId33" xr:uid="{D4AB307D-5516-44CF-8511-1ED838ABD63D}"/>
-    <hyperlink ref="D3" r:id="rId34" xr:uid="{C72D7683-7417-404F-8392-A08EB7382310}"/>
-    <hyperlink ref="D2" r:id="rId35" xr:uid="{336E7955-5DFE-4DCD-8996-9B1AC6BE81D4}"/>
-    <hyperlink ref="D6" r:id="rId36" xr:uid="{55BC50D3-BF71-4B61-9180-670BA851D874}"/>
-    <hyperlink ref="D7" r:id="rId37" xr:uid="{F90CCC1A-7C63-4495-9510-59E0D741C4F0}"/>
-    <hyperlink ref="D8" r:id="rId38" xr:uid="{324470D3-EA30-49A1-8DB9-5ED9EBE7318F}"/>
-    <hyperlink ref="D9" r:id="rId39" xr:uid="{17DA40F4-5CF3-4475-A123-B5D64847F873}"/>
-    <hyperlink ref="D14" r:id="rId40" xr:uid="{3365FA44-BA46-4D73-9F21-D251E6DBBA82}"/>
-    <hyperlink ref="D17" r:id="rId41" xr:uid="{CA9E41F5-B97F-46AF-86FD-7A74D866899B}"/>
-    <hyperlink ref="D18" r:id="rId42" xr:uid="{AA93275F-FC3C-4CF3-A04E-778DB8530943}"/>
-    <hyperlink ref="D19" r:id="rId43" xr:uid="{15BBA116-79FE-45DC-B1E9-1CC377A97163}"/>
-    <hyperlink ref="D20" r:id="rId44" xr:uid="{67519CC7-1BCD-4C53-BF7A-7189E0CEA784}"/>
-    <hyperlink ref="D21" r:id="rId45" xr:uid="{1929CA20-8F5C-4AB9-957B-2688A7FF6948}"/>
+    <hyperlink ref="D37" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D30" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D29" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D28" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D27" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D26" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D25" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D15" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D13" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D12" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D10" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
